--- a/src/test/java/Marriage/pdfExcelImg/Book1.xlsx
+++ b/src/test/java/Marriage/pdfExcelImg/Book1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajavenkatasaikiran_\IdeaProjects\EPAM_TestAutomation\src\test\java\Marriage\pdfExcelImg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86564A98-277A-404C-B700-BB163BCC1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113316DB-CBB5-4ACB-A3A1-0193B6307F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9C1A173F-E75D-4206-9171-0E25DE763D97}"/>
   </bookViews>
   <sheets>
-    <sheet name="try" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7896" uniqueCount="3365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7819" uniqueCount="3365">
   <si>
     <t>name</t>
   </si>
@@ -10506,285 +10505,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CABAF-B296-4EE7-A6F0-39FD6D07E27B}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED10129-A06C-4680-9EA0-11E386516A8B}">
   <dimension ref="A1:G1117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
